--- a/AutoDo/説明.xlsx
+++ b/AutoDo/説明.xlsx
@@ -14,30 +14,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <r>
-      <t>表定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">义书  制作 </t>
-    </r>
+    <t>1. 操作DBのConnection設定</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面生成</t>
+    <t>操作DBから データ取得</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文档生成</t>
+    <t>以前保存した資料DBから データ取得</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作DBと資料DB両方から データ取得</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.テーブル定義書作成</t>
+    <rPh sb="6" eb="9">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２.操作DBの列Property TYPE, 桁数 変更の場合</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．操作DB新しいPropertyは最後追加の場合</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４．操作DBのテーブル作成</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから 、テーブル一覧名取得</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルデータ BackUp （データCopyだけです）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -61,11 +170,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="134"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,14 +199,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -106,6 +222,4536 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>592035</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>22836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1385455" y="27882273"/>
+          <a:ext cx="8904762" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="1047750"/>
+          <a:ext cx="1085850" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブル定義書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ツール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 磁気ディスク 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="838200"/>
+          <a:ext cx="914400" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>操作する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 磁気ディスク 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="2733675"/>
+          <a:ext cx="914400" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>資料保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="1323975"/>
+          <a:ext cx="1171575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2019301" y="1485900"/>
+          <a:ext cx="1133474" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="1952625"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3971925" y="1952626"/>
+          <a:ext cx="9526" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160876</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4629150"/>
+          <a:ext cx="8390476" cy="2961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="4800600"/>
+          <a:ext cx="8210550" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>617848</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>27886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="8401050"/>
+          <a:ext cx="10219048" cy="5514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="11353800"/>
+          <a:ext cx="2514600" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形吹き出し 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="10848975"/>
+          <a:ext cx="1238250" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42371"/>
+            <a:gd name="adj2" fmla="val 86944"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>① テーブル名入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="9334500"/>
+          <a:ext cx="1838325" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形吹き出し 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="8667750"/>
+          <a:ext cx="1238250" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42371"/>
+            <a:gd name="adj2" fmla="val 86944"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>665467</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>161262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="14401800"/>
+          <a:ext cx="10266667" cy="5304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="17916525"/>
+          <a:ext cx="323850" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="17916525"/>
+          <a:ext cx="3533775" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="上矢印 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3971925" y="13468349"/>
+          <a:ext cx="1609725" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形吹き出し 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="17164050"/>
+          <a:ext cx="1238250" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28525"/>
+            <a:gd name="adj2" fmla="val 122500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自動表示できます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形吹き出し 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="17249775"/>
+          <a:ext cx="1238250" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28525"/>
+            <a:gd name="adj2" fmla="val 122500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自動表示できます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>181842</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>39832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>588820</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572751" y="18916650"/>
+          <a:ext cx="1099705" cy="787977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブル定義書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ツール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124692</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>116032</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="フローチャート: 磁気ディスク 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8208819" y="18703636"/>
+          <a:ext cx="921328" cy="1155123"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>操作する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>296142</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>144607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96117</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>144607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9301597" y="19194607"/>
+          <a:ext cx="1185429" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>286618</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>48492</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>135083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9292073" y="19358264"/>
+          <a:ext cx="1147328" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>617848</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>27885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1385455" y="21474545"/>
+          <a:ext cx="10316029" cy="5569704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3463636" y="24456736"/>
+          <a:ext cx="2535382" cy="144607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="四角形吹き出し 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5903768" y="23946716"/>
+          <a:ext cx="1252105" cy="432088"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42371"/>
+            <a:gd name="adj2" fmla="val 86944"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>① テーブル名入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128154</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>6927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594879</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>92652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3591790" y="23559654"/>
+          <a:ext cx="1852180" cy="258907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471054</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>337704</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>113433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形吹き出し 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5320145" y="22885977"/>
+          <a:ext cx="1252104" cy="433820"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42371"/>
+            <a:gd name="adj2" fmla="val 86944"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>147203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>90053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="上矢印 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4006561" y="25085385"/>
+          <a:ext cx="1630507" cy="3926032"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3463</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>170583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>54551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1388918" y="31170128"/>
+          <a:ext cx="8724900" cy="923059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>524741</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>16450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="四角形吹き出し 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343891" y="29575125"/>
+          <a:ext cx="1238250" cy="959425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28525"/>
+            <a:gd name="adj2" fmla="val 122500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>資料</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から、データ自動表示できます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>684068</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10667999" y="29233091"/>
+          <a:ext cx="1099705" cy="787977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブル定義書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ツール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>410440</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>108238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>645968</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>51089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="フローチャート: 磁気ディスク 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801349" y="30934602"/>
+          <a:ext cx="928255" cy="1155123"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>資料保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>12989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11170226" y="30146625"/>
+          <a:ext cx="0" cy="721302"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>12990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>286616</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11360726" y="30146626"/>
+          <a:ext cx="9526" cy="721301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>32471</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624506</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>22836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1413596" y="38171438"/>
+          <a:ext cx="8878785" cy="4190023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>32471</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>650319</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>27885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1413596" y="32004000"/>
+          <a:ext cx="10285723" cy="5361885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32471</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>489671</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485284" y="34875788"/>
+          <a:ext cx="2528887" cy="138112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>394421</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261071</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形吹き出し 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918921" y="34385250"/>
+          <a:ext cx="1247775" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42371"/>
+            <a:gd name="adj2" fmla="val 86944"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>① テーブル名入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487197</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>47749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273565</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>133474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5249697" y="35426320"/>
+          <a:ext cx="1827439" cy="262618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149740</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>66798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16389</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>154254</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="四角形吹き出し 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953311" y="34737798"/>
+          <a:ext cx="1227364" cy="441242"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42371"/>
+            <a:gd name="adj2" fmla="val 86944"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575396</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>147203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127721</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>90053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="上矢印 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4028209" y="35484953"/>
+          <a:ext cx="1624012" cy="3776663"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35934</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>3896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448107</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>54551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417059" y="41342396"/>
+          <a:ext cx="8698923" cy="884093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>16450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="四角形吹き出し 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="40608971"/>
+          <a:ext cx="1247775" cy="412604"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28525"/>
+            <a:gd name="adj2" fmla="val 122500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自動表示できます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="38966776"/>
+          <a:ext cx="1095375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブル定義書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自動</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ツール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="フローチャート: 磁気ディスク 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10787063" y="38766751"/>
+          <a:ext cx="919162" cy="1109663"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>操作する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="フローチャート: 磁気ディスク 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="40609839"/>
+          <a:ext cx="923925" cy="1109662"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>資料保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877675" y="39238239"/>
+          <a:ext cx="1181100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11868151" y="39395401"/>
+          <a:ext cx="1142999" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13644563" y="39847839"/>
+          <a:ext cx="0" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33339</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13835063" y="39847840"/>
+          <a:ext cx="9526" cy="695324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369309</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>22946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1740909" y="42371096"/>
+          <a:ext cx="1688091" cy="1291504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>37233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="四角形吹き出し 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019424" y="44099883"/>
+          <a:ext cx="3409951" cy="1096242"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44115"/>
+            <a:gd name="adj2" fmla="val -120406"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この列について、データなしの場合、有限な程度の自動翻訳できます</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以前登録したデータから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一部固定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Replace</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="41033700"/>
+          <a:ext cx="1238250" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>142872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="四角形吹き出し 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="40405049"/>
+          <a:ext cx="1123950" cy="1057273"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69490"/>
+            <a:gd name="adj2" fmla="val 16674"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力した内容は資料</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を登録する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>592035</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>22836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="46120050"/>
+          <a:ext cx="8821635" cy="4309086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="46739176"/>
+          <a:ext cx="1238250" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="四角形吹き出し 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="45462825"/>
+          <a:ext cx="1123950" cy="1057273"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45761"/>
+            <a:gd name="adj2" fmla="val 62620"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>準備押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="四角形吹き出し 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="48177450"/>
+          <a:ext cx="1123950" cy="1057273"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45761"/>
+            <a:gd name="adj2" fmla="val 62620"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②手で変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="49358551"/>
+          <a:ext cx="1190625" cy="981074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>83228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="四角形吹き出し 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="45405676"/>
+          <a:ext cx="2724150" cy="626152"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40866"/>
+            <a:gd name="adj2" fmla="val 138680"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実行押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>操作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Updata</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>しました</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534526" y="46586776"/>
+          <a:ext cx="1028700" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>627371</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>37538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="51435000"/>
+          <a:ext cx="10228571" cy="4495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="四角形吹き出し 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714499" y="53778150"/>
+          <a:ext cx="2400301" cy="1057273"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45761"/>
+            <a:gd name="adj2" fmla="val 62620"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="54959251"/>
+          <a:ext cx="9801225" cy="981074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="四角形吹き出し 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762249" y="51330225"/>
+          <a:ext cx="2400301" cy="1057273"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45761"/>
+            <a:gd name="adj2" fmla="val 62620"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>② 操作</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.Drop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2.Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>です</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>455771</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>66088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="図 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="57092850"/>
+          <a:ext cx="11428571" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="四角形吹き出し 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="58350150"/>
+          <a:ext cx="1952626" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26858"/>
+            <a:gd name="adj2" fmla="val -115759"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上記テーブル </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>件表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="四角形吹き出し 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="58140600"/>
+          <a:ext cx="1952626" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26858"/>
+            <a:gd name="adj2" fmla="val -115759"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下記明細から </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>delete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> と </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Insert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実行 （データ更新）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="四角形吹き出し 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="57883425"/>
+          <a:ext cx="1952626" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26858"/>
+            <a:gd name="adj2" fmla="val -115759"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Upd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Ins</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>del</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Sql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>570829</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>122952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="62922150"/>
+          <a:ext cx="5371429" cy="6980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27286</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>47276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="70808850"/>
+          <a:ext cx="10314286" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419226" y="72132825"/>
+          <a:ext cx="2400300" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="四角形吹き出し 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="73894949"/>
+          <a:ext cx="1952626" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26858"/>
+            <a:gd name="adj2" fmla="val -115759"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力部分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,32 +5041,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C9"/>
+  <dimension ref="B26:C412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C123" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C190" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B366" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B412" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>